--- a/INTLINE/data/566/PHSA/Gross National Income and Gross Domestic Product by Industry At Current Prices_historical.xlsx
+++ b/INTLINE/data/566/PHSA/Gross National Income and Gross Domestic Product by Industry At Current Prices_historical.xlsx
@@ -1,37 +1,66 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Gross National Income and Gros" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Gross National Income and Gros" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Mining and quarrying</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
+  </si>
+  <si>
+    <t>Electricity, steam, water and waste management</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>Wholesale and retail trade; repair of motor vehicles and motorcycles</t>
+  </si>
+  <si>
+    <t>Financial and insurance activities</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,10 +75,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -57,14 +94,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -353,1853 +391,1812 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BY8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="n">
+    <row r="1" spans="1:77">
+      <c r="B1" s="1">
         <v>1946</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="C1" s="1">
         <v>1947</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="1">
         <v>1948</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="E1" s="1">
         <v>1949</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="F1" s="1">
         <v>1950</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="G1" s="1">
         <v>1951</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="H1" s="1">
         <v>1952</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="I1" s="1">
         <v>1953</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="J1" s="1">
         <v>1954</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="K1" s="1">
         <v>1955</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="L1" s="1">
         <v>1956</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="M1" s="1">
         <v>1957</v>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="N1" s="1">
         <v>1958</v>
       </c>
-      <c r="O1" s="1" t="n">
+      <c r="O1" s="1">
         <v>1959</v>
       </c>
-      <c r="P1" s="1" t="n">
+      <c r="P1" s="1">
         <v>1960</v>
       </c>
-      <c r="Q1" s="1" t="n">
+      <c r="Q1" s="1">
         <v>1961</v>
       </c>
-      <c r="R1" s="1" t="n">
+      <c r="R1" s="1">
         <v>1962</v>
       </c>
-      <c r="S1" s="1" t="n">
+      <c r="S1" s="1">
         <v>1963</v>
       </c>
-      <c r="T1" s="1" t="n">
+      <c r="T1" s="1">
         <v>1964</v>
       </c>
-      <c r="U1" s="1" t="n">
+      <c r="U1" s="1">
         <v>1965</v>
       </c>
-      <c r="V1" s="1" t="n">
+      <c r="V1" s="1">
         <v>1966</v>
       </c>
-      <c r="W1" s="1" t="n">
+      <c r="W1" s="1">
         <v>1967</v>
       </c>
-      <c r="X1" s="1" t="n">
+      <c r="X1" s="1">
         <v>1968</v>
       </c>
-      <c r="Y1" s="1" t="n">
+      <c r="Y1" s="1">
         <v>1969</v>
       </c>
-      <c r="Z1" s="1" t="n">
+      <c r="Z1" s="1">
         <v>1970</v>
       </c>
-      <c r="AA1" s="1" t="n">
+      <c r="AA1" s="1">
         <v>1971</v>
       </c>
-      <c r="AB1" s="1" t="n">
+      <c r="AB1" s="1">
         <v>1972</v>
       </c>
-      <c r="AC1" s="1" t="n">
+      <c r="AC1" s="1">
         <v>1973</v>
       </c>
-      <c r="AD1" s="1" t="n">
+      <c r="AD1" s="1">
         <v>1974</v>
       </c>
-      <c r="AE1" s="1" t="n">
+      <c r="AE1" s="1">
         <v>1975</v>
       </c>
-      <c r="AF1" s="1" t="n">
+      <c r="AF1" s="1">
         <v>1976</v>
       </c>
-      <c r="AG1" s="1" t="n">
+      <c r="AG1" s="1">
         <v>1977</v>
       </c>
-      <c r="AH1" s="1" t="n">
+      <c r="AH1" s="1">
         <v>1978</v>
       </c>
-      <c r="AI1" s="1" t="n">
+      <c r="AI1" s="1">
         <v>1979</v>
       </c>
-      <c r="AJ1" s="1" t="n">
+      <c r="AJ1" s="1">
         <v>1980</v>
       </c>
-      <c r="AK1" s="1" t="n">
+      <c r="AK1" s="1">
         <v>1981</v>
       </c>
-      <c r="AL1" s="1" t="n">
+      <c r="AL1" s="1">
         <v>1982</v>
       </c>
-      <c r="AM1" s="1" t="n">
+      <c r="AM1" s="1">
         <v>1983</v>
       </c>
-      <c r="AN1" s="1" t="n">
+      <c r="AN1" s="1">
         <v>1984</v>
       </c>
-      <c r="AO1" s="1" t="n">
+      <c r="AO1" s="1">
         <v>1985</v>
       </c>
-      <c r="AP1" s="1" t="n">
+      <c r="AP1" s="1">
         <v>1986</v>
       </c>
-      <c r="AQ1" s="1" t="n">
+      <c r="AQ1" s="1">
         <v>1987</v>
       </c>
-      <c r="AR1" s="1" t="n">
+      <c r="AR1" s="1">
         <v>1988</v>
       </c>
-      <c r="AS1" s="1" t="n">
+      <c r="AS1" s="1">
         <v>1989</v>
       </c>
-      <c r="AT1" s="1" t="n">
+      <c r="AT1" s="1">
         <v>1990</v>
       </c>
-      <c r="AU1" s="1" t="n">
+      <c r="AU1" s="1">
         <v>1991</v>
       </c>
-      <c r="AV1" s="1" t="n">
+      <c r="AV1" s="1">
         <v>1992</v>
       </c>
-      <c r="AW1" s="1" t="n">
+      <c r="AW1" s="1">
         <v>1993</v>
       </c>
-      <c r="AX1" s="1" t="n">
+      <c r="AX1" s="1">
         <v>1994</v>
       </c>
-      <c r="AY1" s="1" t="n">
+      <c r="AY1" s="1">
         <v>1995</v>
       </c>
-      <c r="AZ1" s="1" t="n">
+      <c r="AZ1" s="1">
         <v>1996</v>
       </c>
-      <c r="BA1" s="1" t="n">
+      <c r="BA1" s="1">
         <v>1997</v>
       </c>
-      <c r="BB1" s="1" t="n">
+      <c r="BB1" s="1">
         <v>1998</v>
       </c>
-      <c r="BC1" s="1" t="n">
+      <c r="BC1" s="1">
         <v>1999</v>
       </c>
-      <c r="BD1" s="1" t="n">
+      <c r="BD1" s="1">
         <v>2000</v>
       </c>
-      <c r="BE1" s="1" t="n">
+      <c r="BE1" s="1">
         <v>2001</v>
       </c>
-      <c r="BF1" s="1" t="n">
+      <c r="BF1" s="1">
         <v>2002</v>
       </c>
-      <c r="BG1" s="1" t="n">
+      <c r="BG1" s="1">
         <v>2003</v>
       </c>
-      <c r="BH1" s="1" t="n">
+      <c r="BH1" s="1">
         <v>2004</v>
       </c>
-      <c r="BI1" s="1" t="n">
+      <c r="BI1" s="1">
         <v>2005</v>
       </c>
-      <c r="BJ1" s="1" t="n">
+      <c r="BJ1" s="1">
         <v>2006</v>
       </c>
-      <c r="BK1" s="1" t="n">
+      <c r="BK1" s="1">
         <v>2007</v>
       </c>
-      <c r="BL1" s="1" t="n">
+      <c r="BL1" s="1">
         <v>2008</v>
       </c>
-      <c r="BM1" s="1" t="n">
+      <c r="BM1" s="1">
         <v>2009</v>
       </c>
-      <c r="BN1" s="1" t="n">
+      <c r="BN1" s="1">
         <v>2010</v>
       </c>
-      <c r="BO1" s="1" t="n">
+      <c r="BO1" s="1">
         <v>2011</v>
       </c>
-      <c r="BP1" s="1" t="n">
+      <c r="BP1" s="1">
         <v>2012</v>
       </c>
-      <c r="BQ1" s="1" t="n">
+      <c r="BQ1" s="1">
         <v>2013</v>
       </c>
-      <c r="BR1" s="1" t="n">
+      <c r="BR1" s="1">
         <v>2014</v>
       </c>
-      <c r="BS1" s="1" t="n">
+      <c r="BS1" s="1">
         <v>2015</v>
       </c>
-      <c r="BT1" s="1" t="n">
+      <c r="BT1" s="1">
         <v>2016</v>
       </c>
-      <c r="BU1" s="1" t="n">
+      <c r="BU1" s="1">
         <v>2017</v>
       </c>
-      <c r="BV1" s="1" t="n">
+      <c r="BV1" s="1">
         <v>2018</v>
       </c>
-      <c r="BW1" s="1" t="n">
+      <c r="BW1" s="1">
         <v>2019</v>
       </c>
-      <c r="BX1" s="1" t="n">
+      <c r="BX1" s="1">
         <v>2020</v>
       </c>
-      <c r="BY1" s="1" t="n">
+      <c r="BY1" s="1">
         <v>2021</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Mining and quarrying</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:77">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>10</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>10</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>19</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>28</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>41</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>62</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>79</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>86</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>83</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>94</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>108</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>117</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>102</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>113</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2">
         <v>113</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2">
         <v>121</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2">
         <v>155</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2">
         <v>163</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2">
         <v>169</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U2">
         <v>207</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V2">
         <v>283</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W2">
         <v>298</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X2">
         <v>372</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y2">
         <v>507</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z2">
         <v>828</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2">
         <v>831</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2">
         <v>927</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2">
         <v>1639</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2">
         <v>2084</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2">
         <v>1368</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2">
         <v>1547</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2">
         <v>2094</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2">
         <v>2485</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI2">
         <v>4182</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ2">
         <v>5460</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK2">
         <v>5173</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL2">
         <v>4882</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM2">
         <v>6182</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN2">
         <v>8142</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO2">
         <v>11893</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP2">
         <v>14144</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ2">
         <v>14354</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR2">
         <v>15275</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS2">
         <v>15446</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT2">
         <v>16659</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AU2">
         <v>17504</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV2">
         <v>16263</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AW2">
         <v>16621</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="AX2">
         <v>16509</v>
       </c>
-      <c r="AY2" t="n">
+      <c r="AY2">
         <v>16801</v>
       </c>
-      <c r="AZ2" t="n">
+      <c r="AZ2">
         <v>17175</v>
       </c>
-      <c r="BA2" t="n">
+      <c r="BA2">
         <v>17311</v>
       </c>
-      <c r="BB2" t="n">
+      <c r="BB2">
         <v>25037.900002</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BC2">
         <v>21121.999999</v>
       </c>
-      <c r="BD2" t="n">
+      <c r="BD2">
         <v>22911.231876</v>
       </c>
-      <c r="BE2" t="n">
+      <c r="BE2">
         <v>22780.019605</v>
       </c>
-      <c r="BF2" t="n">
+      <c r="BF2">
         <v>41337.14902</v>
       </c>
-      <c r="BG2" t="n">
+      <c r="BG2">
         <v>52385.898133</v>
       </c>
-      <c r="BH2" t="n">
+      <c r="BH2">
         <v>55474.59763</v>
       </c>
-      <c r="BI2" t="n">
+      <c r="BI2">
         <v>71457.669511</v>
       </c>
-      <c r="BJ2" t="n">
+      <c r="BJ2">
         <v>79480.281076</v>
       </c>
-      <c r="BK2" t="n">
+      <c r="BK2">
         <v>98210.17276099999</v>
       </c>
-      <c r="BL2" t="n">
+      <c r="BL2">
         <v>98567.926359</v>
       </c>
-      <c r="BM2" t="n">
+      <c r="BM2">
         <v>110675.717028</v>
       </c>
-      <c r="BN2" t="n">
+      <c r="BN2">
         <v>135401.746672</v>
       </c>
-      <c r="BO2" t="n">
+      <c r="BO2">
         <v>151487.405068</v>
       </c>
-      <c r="BP2" t="n">
+      <c r="BP2">
         <v>131766.526766</v>
       </c>
-      <c r="BQ2" t="n">
+      <c r="BQ2">
         <v>126453.489293</v>
       </c>
-      <c r="BR2" t="n">
+      <c r="BR2">
         <v>143880.453629</v>
       </c>
-      <c r="BS2" t="n">
+      <c r="BS2">
         <v>119626.469493</v>
       </c>
-      <c r="BT2" t="n">
+      <c r="BT2">
         <v>125897.525951</v>
       </c>
-      <c r="BU2" t="n">
+      <c r="BU2">
         <v>148093.882525</v>
       </c>
-      <c r="BV2" t="n">
+      <c r="BV2">
         <v>163322.488586</v>
       </c>
-      <c r="BW2" t="n">
+      <c r="BW2">
         <v>161656.373074</v>
       </c>
-      <c r="BX2" t="n">
+      <c r="BX2">
         <v>137060.315324</v>
       </c>
-      <c r="BY2" t="n">
+      <c r="BY2">
         <v>185284.019599</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:77">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>550</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>654</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>757</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>919</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>1083</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>1287</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>1517</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>1676</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>1795</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>1903</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>2153</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>2431</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3">
         <v>2781</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3">
         <v>3067</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3">
         <v>3302</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3">
         <v>3652</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3">
         <v>4117</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3">
         <v>4832</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3">
         <v>5058</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3">
         <v>5344</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V3">
         <v>5900</v>
       </c>
-      <c r="W3" t="n">
+      <c r="W3">
         <v>6467</v>
       </c>
-      <c r="X3" t="n">
+      <c r="X3">
         <v>7065</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Y3">
         <v>7561</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="Z3">
         <v>9833</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3">
         <v>12322</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3">
         <v>14165</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC3">
         <v>18115</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD3">
         <v>24034</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE3">
         <v>27713</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3">
         <v>32330</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3">
         <v>36993</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH3">
         <v>43538</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AI3">
         <v>51019</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AJ3">
         <v>62654</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AK3">
         <v>71829</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AL3">
         <v>79608</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AM3">
         <v>89472</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AN3">
         <v>129171</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AO3">
         <v>143851</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AP3">
         <v>149958</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AQ3">
         <v>169627</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AR3">
         <v>204784</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AS3">
         <v>230163</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AT3">
         <v>267485</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AU3">
         <v>315938</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AV3">
         <v>326839</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="AW3">
         <v>349595</v>
       </c>
-      <c r="AX3" t="n">
+      <c r="AX3">
         <v>393810</v>
       </c>
-      <c r="AY3" t="n">
+      <c r="AY3">
         <v>438247</v>
       </c>
-      <c r="AZ3" t="n">
+      <c r="AZ3">
         <v>495389</v>
       </c>
-      <c r="BA3" t="n">
+      <c r="BA3">
         <v>540305</v>
       </c>
-      <c r="BB3" t="n">
+      <c r="BB3">
         <v>692597.0692849</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BC3">
         <v>761325.534915009</v>
       </c>
-      <c r="BD3" t="n">
+      <c r="BD3">
         <v>934726.133614</v>
       </c>
-      <c r="BE3" t="n">
+      <c r="BE3">
         <v>1018637.584729</v>
       </c>
-      <c r="BF3" t="n">
+      <c r="BF3">
         <v>1093530.978492</v>
       </c>
-      <c r="BG3" t="n">
+      <c r="BG3">
         <v>1171756.198192</v>
       </c>
-      <c r="BH3" t="n">
+      <c r="BH3">
         <v>1278375.758348</v>
       </c>
-      <c r="BI3" t="n">
+      <c r="BI3">
         <v>1436118.566189</v>
       </c>
-      <c r="BJ3" t="n">
+      <c r="BJ3">
         <v>1560911.038038</v>
       </c>
-      <c r="BK3" t="n">
+      <c r="BK3">
         <v>1666459.310668</v>
       </c>
-      <c r="BL3" t="n">
+      <c r="BL3">
         <v>1873174.429787</v>
       </c>
-      <c r="BM3" t="n">
+      <c r="BM3">
         <v>1823961.366237</v>
       </c>
-      <c r="BN3" t="n">
+      <c r="BN3">
         <v>2060284.571935</v>
       </c>
-      <c r="BO3" t="n">
+      <c r="BO3">
         <v>2201830.4626</v>
       </c>
-      <c r="BP3" t="n">
+      <c r="BP3">
         <v>2359065.564875</v>
       </c>
-      <c r="BQ3" t="n">
+      <c r="BQ3">
         <v>2462478.070267</v>
       </c>
-      <c r="BR3" t="n">
+      <c r="BR3">
         <v>2717316.005286</v>
       </c>
-      <c r="BS3" t="n">
+      <c r="BS3">
         <v>2778794.816104</v>
       </c>
-      <c r="BT3" t="n">
+      <c r="BT3">
         <v>2964479.411301</v>
       </c>
-      <c r="BU3" t="n">
+      <c r="BU3">
         <v>3228580.414857</v>
       </c>
-      <c r="BV3" t="n">
+      <c r="BV3">
         <v>3488331.181025</v>
       </c>
-      <c r="BW3" t="n">
+      <c r="BW3">
         <v>3614016.234103</v>
       </c>
-      <c r="BX3" t="n">
+      <c r="BX3">
         <v>3169921.002857</v>
       </c>
-      <c r="BY3" t="n">
+      <c r="BY3">
         <v>3423403.860882</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Electricity, steam, water and waste management</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:77">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
         <v>67</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>70</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>73</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>77</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>80</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>86</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>90</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>95</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>100</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>105</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>120</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>130</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4">
         <v>139</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4">
         <v>145</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4">
         <v>151</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4">
         <v>152</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4">
         <v>156</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4">
         <v>162</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4">
         <v>173</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4">
         <v>197</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4">
         <v>218</v>
       </c>
-      <c r="W4" t="n">
+      <c r="W4">
         <v>223</v>
       </c>
-      <c r="X4" t="n">
+      <c r="X4">
         <v>258</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Y4">
         <v>292</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="Z4">
         <v>328</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4">
         <v>375</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4">
         <v>468</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC4">
         <v>565</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AD4">
         <v>1291</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AE4">
         <v>1468</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AF4">
         <v>1701</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AG4">
         <v>1970</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AH4">
         <v>2290</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AI4">
         <v>2934</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AJ4">
         <v>3806</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AK4">
         <v>4945</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AL4">
         <v>6577</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AM4">
         <v>8955</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AN4">
         <v>12779</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AO4">
         <v>15767</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AP4">
         <v>16642</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AQ4">
         <v>14009</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AR4">
         <v>18084</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AS4">
         <v>20074</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AT4">
         <v>22300</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AU4">
         <v>29100</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AV4">
         <v>32743</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="AW4">
         <v>36417</v>
       </c>
-      <c r="AX4" t="n">
+      <c r="AX4">
         <v>44895</v>
       </c>
-      <c r="AY4" t="n">
+      <c r="AY4">
         <v>49410</v>
       </c>
-      <c r="AZ4" t="n">
+      <c r="AZ4">
         <v>56725</v>
       </c>
-      <c r="BA4" t="n">
+      <c r="BA4">
         <v>66054</v>
       </c>
-      <c r="BB4" t="n">
+      <c r="BB4">
         <v>110062.602191407</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BC4">
         <v>117179.377321611</v>
       </c>
-      <c r="BD4" t="n">
+      <c r="BD4">
         <v>134499.775668</v>
       </c>
-      <c r="BE4" t="n">
+      <c r="BE4">
         <v>159999.65874</v>
       </c>
-      <c r="BF4" t="n">
+      <c r="BF4">
         <v>165369.324877</v>
       </c>
-      <c r="BG4" t="n">
+      <c r="BG4">
         <v>175192.618953</v>
       </c>
-      <c r="BH4" t="n">
+      <c r="BH4">
         <v>195623.083156</v>
       </c>
-      <c r="BI4" t="n">
+      <c r="BI4">
         <v>220570.507389</v>
       </c>
-      <c r="BJ4" t="n">
+      <c r="BJ4">
         <v>238502.59849</v>
       </c>
-      <c r="BK4" t="n">
+      <c r="BK4">
         <v>255295.277219</v>
       </c>
-      <c r="BL4" t="n">
+      <c r="BL4">
         <v>266702.38551</v>
       </c>
-      <c r="BM4" t="n">
+      <c r="BM4">
         <v>275784.220661</v>
       </c>
-      <c r="BN4" t="n">
+      <c r="BN4">
         <v>326132.61062</v>
       </c>
-      <c r="BO4" t="n">
+      <c r="BO4">
         <v>335334.442373</v>
       </c>
-      <c r="BP4" t="n">
+      <c r="BP4">
         <v>379746.927868</v>
       </c>
-      <c r="BQ4" t="n">
+      <c r="BQ4">
         <v>401382.416262</v>
       </c>
-      <c r="BR4" t="n">
+      <c r="BR4">
         <v>426063.26107</v>
       </c>
-      <c r="BS4" t="n">
+      <c r="BS4">
         <v>443279.152464</v>
       </c>
-      <c r="BT4" t="n">
+      <c r="BT4">
         <v>466221.738563</v>
       </c>
-      <c r="BU4" t="n">
+      <c r="BU4">
         <v>505119.167941</v>
       </c>
-      <c r="BV4" t="n">
+      <c r="BV4">
         <v>557030.201917</v>
       </c>
-      <c r="BW4" t="n">
+      <c r="BW4">
         <v>607881.483</v>
       </c>
-      <c r="BX4" t="n">
+      <c r="BX4">
         <v>611051.346824</v>
       </c>
-      <c r="BY4" t="n">
+      <c r="BY4">
         <v>650876.387725</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Construction</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:77">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>444</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>757</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>963</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>704</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>620</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>706</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>627</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>704</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>560</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>549</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>653</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>741</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5">
         <v>657</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5">
         <v>708</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5">
         <v>659</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5">
         <v>755</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5">
         <v>754</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S5">
         <v>986</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T5">
         <v>1123</v>
       </c>
-      <c r="U5" t="n">
+      <c r="U5">
         <v>1288</v>
       </c>
-      <c r="V5" t="n">
+      <c r="V5">
         <v>1297</v>
       </c>
-      <c r="W5" t="n">
+      <c r="W5">
         <v>1429</v>
       </c>
-      <c r="X5" t="n">
+      <c r="X5">
         <v>1434</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Y5">
         <v>1625</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="Z5">
         <v>1608</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA5">
         <v>1891</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB5">
         <v>2378</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC5">
         <v>2925</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD5">
         <v>4858</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AE5">
         <v>7233</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF5">
         <v>10410</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AG5">
         <v>12521</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AH5">
         <v>13367</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AI5">
         <v>17894</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AJ5">
         <v>22625</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AK5">
         <v>28362</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AL5">
         <v>32087</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AM5">
         <v>40192</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AN5">
         <v>48727</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AO5">
         <v>29037</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AP5">
         <v>29784</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AQ5">
         <v>37104</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AR5">
         <v>42814</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AS5">
         <v>57281</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AT5">
         <v>64903</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AU5">
         <v>61962</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AV5">
         <v>67968</v>
       </c>
-      <c r="AW5" t="n">
+      <c r="AW5">
         <v>79267</v>
       </c>
-      <c r="AX5" t="n">
+      <c r="AX5">
         <v>95495</v>
       </c>
-      <c r="AY5" t="n">
+      <c r="AY5">
         <v>106639</v>
       </c>
-      <c r="AZ5" t="n">
+      <c r="AZ5">
         <v>127592</v>
       </c>
-      <c r="BA5" t="n">
+      <c r="BA5">
         <v>156116</v>
       </c>
-      <c r="BB5" t="n">
+      <c r="BB5">
         <v>187763.244134032</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BC5">
         <v>172770.997651189</v>
       </c>
-      <c r="BD5" t="n">
+      <c r="BD5">
         <v>201093.671164</v>
       </c>
-      <c r="BE5" t="n">
+      <c r="BE5">
         <v>203001.995523</v>
       </c>
-      <c r="BF5" t="n">
+      <c r="BF5">
         <v>213036.689517</v>
       </c>
-      <c r="BG5" t="n">
+      <c r="BG5">
         <v>230223.10266</v>
       </c>
-      <c r="BH5" t="n">
+      <c r="BH5">
         <v>260353.732517</v>
       </c>
-      <c r="BI5" t="n">
+      <c r="BI5">
         <v>272703.940326</v>
       </c>
-      <c r="BJ5" t="n">
+      <c r="BJ5">
         <v>313044.998283</v>
       </c>
-      <c r="BK5" t="n">
+      <c r="BK5">
         <v>355518.02438</v>
       </c>
-      <c r="BL5" t="n">
+      <c r="BL5">
         <v>399226.709329</v>
       </c>
-      <c r="BM5" t="n">
+      <c r="BM5">
         <v>434452.880787</v>
       </c>
-      <c r="BN5" t="n">
+      <c r="BN5">
         <v>517921.716662</v>
       </c>
-      <c r="BO5" t="n">
+      <c r="BO5">
         <v>490550.922538</v>
       </c>
-      <c r="BP5" t="n">
+      <c r="BP5">
         <v>602389.8362960001</v>
       </c>
-      <c r="BQ5" t="n">
+      <c r="BQ5">
         <v>718309.529091</v>
       </c>
-      <c r="BR5" t="n">
+      <c r="BR5">
         <v>813122.948371</v>
       </c>
-      <c r="BS5" t="n">
+      <c r="BS5">
         <v>908750.80026</v>
       </c>
-      <c r="BT5" t="n">
+      <c r="BT5">
         <v>1026381.841669</v>
       </c>
-      <c r="BU5" t="n">
+      <c r="BU5">
         <v>1106154.397106</v>
       </c>
-      <c r="BV5" t="n">
+      <c r="BV5">
         <v>1373841.417788</v>
       </c>
-      <c r="BW5" t="n">
+      <c r="BW5">
         <v>1535727.401128</v>
       </c>
-      <c r="BX5" t="n">
+      <c r="BX5">
         <v>1180199.434098</v>
       </c>
-      <c r="BY5" t="n">
+      <c r="BY5">
         <v>1347446.263728</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Services</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:77">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
         <v>2002.463594</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>2224.09277187731</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>2462.17341935732</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>2677.82967549137</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>2887.86733758664</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>3205.00341303212</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>3451.56789211737</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>3619.01120183726</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>3856.4243416102</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>4156.03445694797</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>4567.31886060059</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6">
         <v>4971.41952573292</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6">
         <v>5250.9990504567</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6">
         <v>5698.728195041</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6">
         <v>6312.47471214815</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6">
         <v>6795.40906595172</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6">
         <v>7633.51925271693</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S6">
         <v>8631.393296840961</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T6">
         <v>9627.908790706681</v>
       </c>
-      <c r="U6" t="n">
+      <c r="U6">
         <v>10518.5181606693</v>
       </c>
-      <c r="V6" t="n">
+      <c r="V6">
         <v>11626.2157369246</v>
       </c>
-      <c r="W6" t="n">
+      <c r="W6">
         <v>12251.4327003389</v>
       </c>
-      <c r="X6" t="n">
+      <c r="X6">
         <v>13420.4646998743</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Y6">
         <v>14778.0527592108</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="Z6">
         <v>17055.8361453961</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA6">
         <v>19915.7603932693</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB6">
         <v>22145.4855832165</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC6">
         <v>26918.7199087288</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD6">
         <v>36074.2313684108</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AE6">
         <v>41842.1969816089</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AF6">
         <v>49091.7131170814</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AG6">
         <v>55858.5638261646</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AH6">
         <v>65072.6183457897</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AI6">
         <v>79260.52327989371</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AJ6">
         <v>97602.9564284787</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AK6">
         <v>112227.72160852</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AL6">
         <v>132916.375497022</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AM6">
         <v>156848.057877018</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AN6">
         <v>217719.66006772</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AO6">
         <v>257409.140178224</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AP6">
         <v>281753.059705732</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AQ6">
         <v>316752.357418726</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AR6">
         <v>373060.401330865</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AS6">
         <v>437604.482196748</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AT6">
         <v>523955.99518913</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AU6">
         <v>626106.068968397</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="AV6">
         <v>684974.564758683</v>
       </c>
-      <c r="AW6" t="n">
+      <c r="AW6">
         <v>753610.7551409299</v>
       </c>
-      <c r="AX6" t="n">
+      <c r="AX6">
         <v>861508.464449655</v>
       </c>
-      <c r="AY6" t="n">
+      <c r="AY6">
         <v>988392.23506807</v>
       </c>
-      <c r="AZ6" t="n">
+      <c r="AZ6">
         <v>1149397.54684348</v>
       </c>
-      <c r="BA6" t="n">
+      <c r="BA6">
         <v>1328175.70521267</v>
       </c>
-      <c r="BB6" t="n">
+      <c r="BB6">
         <v>1534386.99753943</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BC6">
         <v>1715803.68299493</v>
       </c>
-      <c r="BD6" t="n">
+      <c r="BD6">
         <v>1888845.562007</v>
       </c>
-      <c r="BE6" t="n">
+      <c r="BE6">
         <v>2084621.564958</v>
       </c>
-      <c r="BF6" t="n">
+      <c r="BF6">
         <v>2252204.366197</v>
       </c>
-      <c r="BG6" t="n">
+      <c r="BG6">
         <v>2467814.53797</v>
       </c>
-      <c r="BH6" t="n">
+      <c r="BH6">
         <v>2789560.753298</v>
       </c>
-      <c r="BI6" t="n">
+      <c r="BI6">
         <v>3116560.201351</v>
       </c>
-      <c r="BJ6" t="n">
+      <c r="BJ6">
         <v>3483260.64902</v>
       </c>
-      <c r="BK6" t="n">
+      <c r="BK6">
         <v>3843332.363747</v>
       </c>
-      <c r="BL6" t="n">
+      <c r="BL6">
         <v>4243956.029336</v>
       </c>
-      <c r="BM6" t="n">
+      <c r="BM6">
         <v>4525562.093778</v>
       </c>
-      <c r="BN6" t="n">
+      <c r="BN6">
         <v>5067392.311779</v>
       </c>
-      <c r="BO6" t="n">
+      <c r="BO6">
         <v>5535493.501562</v>
       </c>
-      <c r="BP6" t="n">
+      <c r="BP6">
         <v>6139146.607226</v>
       </c>
-      <c r="BQ6" t="n">
+      <c r="BQ6">
         <v>6838846.913572</v>
       </c>
-      <c r="BR6" t="n">
+      <c r="BR6">
         <v>7485745.668073</v>
       </c>
-      <c r="BS6" t="n">
+      <c r="BS6">
         <v>8160337.053527</v>
       </c>
-      <c r="BT6" t="n">
+      <c r="BT6">
         <v>9005122.427606</v>
       </c>
-      <c r="BU6" t="n">
+      <c r="BU6">
         <v>9882747.035254</v>
       </c>
-      <c r="BV6" t="n">
+      <c r="BV6">
         <v>10920048.472266</v>
       </c>
-      <c r="BW6" t="n">
+      <c r="BW6">
         <v>11877042.960118</v>
       </c>
-      <c r="BX6" t="n">
+      <c r="BX6">
         <v>11024917.867682</v>
       </c>
-      <c r="BY6" t="n">
+      <c r="BY6">
         <v>11849212.879295</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Wholesale and retail trade; repair of motor vehicles and motorcycles</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="n">
+    <row r="7" spans="1:77">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W7">
         <v>2632</v>
       </c>
-      <c r="X7" t="n">
+      <c r="X7">
         <v>2778</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="Y7">
         <v>3000</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="Z7">
         <v>3833</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AA7">
         <v>4660</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AB7">
         <v>5313</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AC7">
         <v>6723</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AD7">
         <v>9835</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AE7">
         <v>11125</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AF7">
         <v>13277</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AG7">
         <v>15724</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AH7">
         <v>18658</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AI7">
         <v>23658</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AJ7">
         <v>29681</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AK7">
         <v>33299</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AL7">
         <v>39683</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AM7">
         <v>46743</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="AN7">
         <v>70822</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="AO7">
         <v>82835</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AP7">
         <v>87825</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="AQ7">
         <v>96518</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="AR7">
         <v>114085</v>
       </c>
-      <c r="AS7" t="n">
+      <c r="AS7">
         <v>133224</v>
       </c>
-      <c r="AT7" t="n">
+      <c r="AT7">
         <v>154592</v>
       </c>
-      <c r="AU7" t="n">
+      <c r="AU7">
         <v>180486</v>
       </c>
-      <c r="AV7" t="n">
+      <c r="AV7">
         <v>193573</v>
       </c>
-      <c r="AW7" t="n">
+      <c r="AW7">
         <v>207563</v>
       </c>
-      <c r="AX7" t="n">
+      <c r="AX7">
         <v>230799</v>
       </c>
-      <c r="AY7" t="n">
+      <c r="AY7">
         <v>261862</v>
       </c>
-      <c r="AZ7" t="n">
+      <c r="AZ7">
         <v>295092</v>
       </c>
-      <c r="BA7" t="n">
+      <c r="BA7">
         <v>317170</v>
       </c>
-      <c r="BB7" t="n">
+      <c r="BB7">
         <v>432604.300007872</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BC7">
         <v>505836.913706441</v>
       </c>
-      <c r="BD7" t="n">
+      <c r="BD7">
         <v>576736.167147</v>
       </c>
-      <c r="BE7" t="n">
+      <c r="BE7">
         <v>632063.932441</v>
       </c>
-      <c r="BF7" t="n">
+      <c r="BF7">
         <v>676253.595141</v>
       </c>
-      <c r="BG7" t="n">
+      <c r="BG7">
         <v>734068.933398</v>
       </c>
-      <c r="BH7" t="n">
+      <c r="BH7">
         <v>828676.023462</v>
       </c>
-      <c r="BI7" t="n">
+      <c r="BI7">
         <v>939417.755372</v>
       </c>
-      <c r="BJ7" t="n">
+      <c r="BJ7">
         <v>1062061.311918</v>
       </c>
-      <c r="BK7" t="n">
+      <c r="BK7">
         <v>1186383.928467</v>
       </c>
-      <c r="BL7" t="n">
+      <c r="BL7">
         <v>1319541.681482</v>
       </c>
-      <c r="BM7" t="n">
+      <c r="BM7">
         <v>1366111.972022</v>
       </c>
-      <c r="BN7" t="n">
+      <c r="BN7">
         <v>1571247.768297</v>
       </c>
-      <c r="BO7" t="n">
+      <c r="BO7">
         <v>1704663.450075</v>
       </c>
-      <c r="BP7" t="n">
+      <c r="BP7">
         <v>1878583.229632</v>
       </c>
-      <c r="BQ7" t="n">
+      <c r="BQ7">
         <v>2078127.39872</v>
       </c>
-      <c r="BR7" t="n">
+      <c r="BR7">
         <v>2252323.696536</v>
       </c>
-      <c r="BS7" t="n">
+      <c r="BS7">
         <v>2427159.611945</v>
       </c>
-      <c r="BT7" t="n">
+      <c r="BT7">
         <v>2668595.57114</v>
       </c>
-      <c r="BU7" t="n">
+      <c r="BU7">
         <v>2926501.504771</v>
       </c>
-      <c r="BV7" t="n">
+      <c r="BV7">
         <v>3237304.499115</v>
       </c>
-      <c r="BW7" t="n">
+      <c r="BW7">
         <v>3517653.082856</v>
       </c>
-      <c r="BX7" t="n">
+      <c r="BX7">
         <v>3317370.680859</v>
       </c>
-      <c r="BY7" t="n">
+      <c r="BY7">
         <v>3503236.479549</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Financial and insurance activities</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:77">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
         <v>1223</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>1304</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>1408</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>1497</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>1574</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>1728</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>1794</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>1839</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>1938</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>2058</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8">
         <v>2240</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8">
         <v>2407</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8">
         <v>2506</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8">
         <v>2726</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P8">
         <v>2978</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q8">
         <v>3183</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R8">
         <v>3602</v>
       </c>
-      <c r="S8" t="n">
+      <c r="S8">
         <v>4087</v>
       </c>
-      <c r="T8" t="n">
+      <c r="T8">
         <v>4558</v>
       </c>
-      <c r="U8" t="n">
+      <c r="U8">
         <v>4999</v>
       </c>
-      <c r="V8" t="n">
+      <c r="V8">
         <v>5462</v>
       </c>
-      <c r="W8" t="n">
+      <c r="W8">
         <v>677</v>
       </c>
-      <c r="X8" t="n">
+      <c r="X8">
         <v>832</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="Y8">
         <v>1033</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="Z8">
         <v>1191</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AA8">
         <v>1376</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AB8">
         <v>1556</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AC8">
         <v>1950</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AD8">
         <v>2758</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AE8">
         <v>3549</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AF8">
         <v>4267</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AG8">
         <v>4884</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AH8">
         <v>5733</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AI8">
         <v>7261</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AJ8">
         <v>9457</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AK8">
         <v>9253</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AL8">
         <v>10762</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AM8">
         <v>13484</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AN8">
         <v>16335</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AO8">
         <v>17123</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AP8">
         <v>18658</v>
       </c>
-      <c r="AQ8" t="n">
+      <c r="AQ8">
         <v>22446</v>
       </c>
-      <c r="AR8" t="n">
+      <c r="AR8">
         <v>27125</v>
       </c>
-      <c r="AS8" t="n">
+      <c r="AS8">
         <v>34334</v>
       </c>
-      <c r="AT8" t="n">
+      <c r="AT8">
         <v>42531</v>
       </c>
-      <c r="AU8" t="n">
+      <c r="AU8">
         <v>48572</v>
       </c>
-      <c r="AV8" t="n">
+      <c r="AV8">
         <v>53166</v>
       </c>
-      <c r="AW8" t="n">
+      <c r="AW8">
         <v>58557</v>
       </c>
-      <c r="AX8" t="n">
+      <c r="AX8">
         <v>67368</v>
       </c>
-      <c r="AY8" t="n">
+      <c r="AY8">
         <v>78232</v>
       </c>
-      <c r="AZ8" t="n">
+      <c r="AZ8">
         <v>96424</v>
       </c>
-      <c r="BA8" t="n">
+      <c r="BA8">
         <v>114459</v>
       </c>
-      <c r="BB8" t="n">
+      <c r="BB8">
         <v>160739.7</v>
       </c>
-      <c r="BC8" t="n">
+      <c r="BC8">
         <v>176770.000001</v>
       </c>
-      <c r="BD8" t="n">
+      <c r="BD8">
         <v>191405.284373</v>
       </c>
-      <c r="BE8" t="n">
+      <c r="BE8">
         <v>215507.959979</v>
       </c>
-      <c r="BF8" t="n">
+      <c r="BF8">
         <v>234807.872541</v>
       </c>
-      <c r="BG8" t="n">
+      <c r="BG8">
         <v>260031.210879</v>
       </c>
-      <c r="BH8" t="n">
+      <c r="BH8">
         <v>298287.059877</v>
       </c>
-      <c r="BI8" t="n">
+      <c r="BI8">
         <v>352560.086177</v>
       </c>
-      <c r="BJ8" t="n">
+      <c r="BJ8">
         <v>418982.312224</v>
       </c>
-      <c r="BK8" t="n">
+      <c r="BK8">
         <v>468983.429956</v>
       </c>
-      <c r="BL8" t="n">
+      <c r="BL8">
         <v>518049.264185</v>
       </c>
-      <c r="BM8" t="n">
+      <c r="BM8">
         <v>560948.3451180001</v>
       </c>
-      <c r="BN8" t="n">
+      <c r="BN8">
         <v>636283.087879</v>
       </c>
-      <c r="BO8" t="n">
+      <c r="BO8">
         <v>692889.382198</v>
       </c>
-      <c r="BP8" t="n">
+      <c r="BP8">
         <v>769803.681312</v>
       </c>
-      <c r="BQ8" t="n">
+      <c r="BQ8">
         <v>892657.838974</v>
       </c>
-      <c r="BR8" t="n">
+      <c r="BR8">
         <v>1005738.644225</v>
       </c>
-      <c r="BS8" t="n">
+      <c r="BS8">
         <v>1087980.507633</v>
       </c>
-      <c r="BT8" t="n">
+      <c r="BT8">
         <v>1193651.481523</v>
       </c>
-      <c r="BU8" t="n">
+      <c r="BU8">
         <v>1326582.520502</v>
       </c>
-      <c r="BV8" t="n">
+      <c r="BV8">
         <v>1498146.707611</v>
       </c>
-      <c r="BW8" t="n">
+      <c r="BW8">
         <v>1681870.098086</v>
       </c>
-      <c r="BX8" t="n">
+      <c r="BX8">
         <v>1823978.721646</v>
       </c>
-      <c r="BY8" t="n">
+      <c r="BY8">
         <v>1961921.522176</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/INTLINE/data/566/PHSA/Gross National Income and Gross Domestic Product by Industry At Current Prices_historical.xlsx
+++ b/INTLINE/data/566/PHSA/Gross National Income and Gross Domestic Product by Industry At Current Prices_historical.xlsx
@@ -1,66 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Gross National Income and Gros" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Gross National Income and Gros" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Mining and quarrying</t>
-  </si>
-  <si>
-    <t>Manufacturing</t>
-  </si>
-  <si>
-    <t>Electricity, steam, water and waste management</t>
-  </si>
-  <si>
-    <t>Construction</t>
-  </si>
-  <si>
-    <t>Services</t>
-  </si>
-  <si>
-    <t>Wholesale and retail trade; repair of motor vehicles and motorcycles</t>
-  </si>
-  <si>
-    <t>Financial and insurance activities</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -75,18 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -94,15 +57,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -391,1812 +353,1853 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:BY8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:77">
-      <c r="B1" s="1">
+    <row r="1">
+      <c r="B1" s="1" t="n">
         <v>1946</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="n">
         <v>1947</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="n">
         <v>1948</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="1" t="n">
         <v>1949</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="1" t="n">
         <v>1950</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="1" t="n">
         <v>1951</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="1" t="n">
         <v>1952</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="1" t="n">
         <v>1953</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="1" t="n">
         <v>1954</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="1" t="n">
         <v>1955</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="1" t="n">
         <v>1956</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="1" t="n">
         <v>1957</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="1" t="n">
         <v>1958</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" s="1" t="n">
         <v>1959</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1" s="1" t="n">
         <v>1960</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1" s="1" t="n">
         <v>1961</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R1" s="1" t="n">
         <v>1962</v>
       </c>
-      <c r="S1" s="1">
+      <c r="S1" s="1" t="n">
         <v>1963</v>
       </c>
-      <c r="T1" s="1">
+      <c r="T1" s="1" t="n">
         <v>1964</v>
       </c>
-      <c r="U1" s="1">
+      <c r="U1" s="1" t="n">
         <v>1965</v>
       </c>
-      <c r="V1" s="1">
+      <c r="V1" s="1" t="n">
         <v>1966</v>
       </c>
-      <c r="W1" s="1">
+      <c r="W1" s="1" t="n">
         <v>1967</v>
       </c>
-      <c r="X1" s="1">
+      <c r="X1" s="1" t="n">
         <v>1968</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="Y1" s="1" t="n">
         <v>1969</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="Z1" s="1" t="n">
         <v>1970</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AA1" s="1" t="n">
         <v>1971</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="AB1" s="1" t="n">
         <v>1972</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="AC1" s="1" t="n">
         <v>1973</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AD1" s="1" t="n">
         <v>1974</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="AE1" s="1" t="n">
         <v>1975</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="AF1" s="1" t="n">
         <v>1976</v>
       </c>
-      <c r="AG1" s="1">
+      <c r="AG1" s="1" t="n">
         <v>1977</v>
       </c>
-      <c r="AH1" s="1">
+      <c r="AH1" s="1" t="n">
         <v>1978</v>
       </c>
-      <c r="AI1" s="1">
+      <c r="AI1" s="1" t="n">
         <v>1979</v>
       </c>
-      <c r="AJ1" s="1">
+      <c r="AJ1" s="1" t="n">
         <v>1980</v>
       </c>
-      <c r="AK1" s="1">
+      <c r="AK1" s="1" t="n">
         <v>1981</v>
       </c>
-      <c r="AL1" s="1">
+      <c r="AL1" s="1" t="n">
         <v>1982</v>
       </c>
-      <c r="AM1" s="1">
+      <c r="AM1" s="1" t="n">
         <v>1983</v>
       </c>
-      <c r="AN1" s="1">
+      <c r="AN1" s="1" t="n">
         <v>1984</v>
       </c>
-      <c r="AO1" s="1">
+      <c r="AO1" s="1" t="n">
         <v>1985</v>
       </c>
-      <c r="AP1" s="1">
+      <c r="AP1" s="1" t="n">
         <v>1986</v>
       </c>
-      <c r="AQ1" s="1">
+      <c r="AQ1" s="1" t="n">
         <v>1987</v>
       </c>
-      <c r="AR1" s="1">
+      <c r="AR1" s="1" t="n">
         <v>1988</v>
       </c>
-      <c r="AS1" s="1">
+      <c r="AS1" s="1" t="n">
         <v>1989</v>
       </c>
-      <c r="AT1" s="1">
+      <c r="AT1" s="1" t="n">
         <v>1990</v>
       </c>
-      <c r="AU1" s="1">
+      <c r="AU1" s="1" t="n">
         <v>1991</v>
       </c>
-      <c r="AV1" s="1">
+      <c r="AV1" s="1" t="n">
         <v>1992</v>
       </c>
-      <c r="AW1" s="1">
+      <c r="AW1" s="1" t="n">
         <v>1993</v>
       </c>
-      <c r="AX1" s="1">
+      <c r="AX1" s="1" t="n">
         <v>1994</v>
       </c>
-      <c r="AY1" s="1">
+      <c r="AY1" s="1" t="n">
         <v>1995</v>
       </c>
-      <c r="AZ1" s="1">
+      <c r="AZ1" s="1" t="n">
         <v>1996</v>
       </c>
-      <c r="BA1" s="1">
+      <c r="BA1" s="1" t="n">
         <v>1997</v>
       </c>
-      <c r="BB1" s="1">
+      <c r="BB1" s="1" t="n">
         <v>1998</v>
       </c>
-      <c r="BC1" s="1">
+      <c r="BC1" s="1" t="n">
         <v>1999</v>
       </c>
-      <c r="BD1" s="1">
+      <c r="BD1" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="BE1" s="1">
+      <c r="BE1" s="1" t="n">
         <v>2001</v>
       </c>
-      <c r="BF1" s="1">
+      <c r="BF1" s="1" t="n">
         <v>2002</v>
       </c>
-      <c r="BG1" s="1">
+      <c r="BG1" s="1" t="n">
         <v>2003</v>
       </c>
-      <c r="BH1" s="1">
+      <c r="BH1" s="1" t="n">
         <v>2004</v>
       </c>
-      <c r="BI1" s="1">
+      <c r="BI1" s="1" t="n">
         <v>2005</v>
       </c>
-      <c r="BJ1" s="1">
+      <c r="BJ1" s="1" t="n">
         <v>2006</v>
       </c>
-      <c r="BK1" s="1">
+      <c r="BK1" s="1" t="n">
         <v>2007</v>
       </c>
-      <c r="BL1" s="1">
+      <c r="BL1" s="1" t="n">
         <v>2008</v>
       </c>
-      <c r="BM1" s="1">
+      <c r="BM1" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="BN1" s="1">
+      <c r="BN1" s="1" t="n">
         <v>2010</v>
       </c>
-      <c r="BO1" s="1">
+      <c r="BO1" s="1" t="n">
         <v>2011</v>
       </c>
-      <c r="BP1" s="1">
+      <c r="BP1" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="BQ1" s="1">
+      <c r="BQ1" s="1" t="n">
         <v>2013</v>
       </c>
-      <c r="BR1" s="1">
+      <c r="BR1" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="BS1" s="1">
+      <c r="BS1" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="BT1" s="1">
+      <c r="BT1" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="BU1" s="1">
+      <c r="BU1" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="BV1" s="1">
+      <c r="BV1" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="BW1" s="1">
+      <c r="BW1" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="BX1" s="1">
+      <c r="BX1" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="BY1" s="1">
+      <c r="BY1" s="1" t="n">
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:77">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Mining and quarrying</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>10</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>19</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>28</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>41</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>62</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>79</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>86</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>83</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>94</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>108</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="n">
         <v>117</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="n">
         <v>102</v>
       </c>
-      <c r="O2">
+      <c r="O2" t="n">
         <v>113</v>
       </c>
-      <c r="P2">
+      <c r="P2" t="n">
         <v>113</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" t="n">
         <v>121</v>
       </c>
-      <c r="R2">
+      <c r="R2" t="n">
         <v>155</v>
       </c>
-      <c r="S2">
+      <c r="S2" t="n">
         <v>163</v>
       </c>
-      <c r="T2">
+      <c r="T2" t="n">
         <v>169</v>
       </c>
-      <c r="U2">
+      <c r="U2" t="n">
         <v>207</v>
       </c>
-      <c r="V2">
+      <c r="V2" t="n">
         <v>283</v>
       </c>
-      <c r="W2">
+      <c r="W2" t="n">
         <v>298</v>
       </c>
-      <c r="X2">
+      <c r="X2" t="n">
         <v>372</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" t="n">
         <v>507</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" t="n">
         <v>828</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" t="n">
         <v>831</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" t="n">
         <v>927</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" t="n">
         <v>1639</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" t="n">
         <v>2084</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" t="n">
         <v>1368</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" t="n">
         <v>1547</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" t="n">
         <v>2094</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" t="n">
         <v>2485</v>
       </c>
-      <c r="AI2">
+      <c r="AI2" t="n">
         <v>4182</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ2" t="n">
         <v>5460</v>
       </c>
-      <c r="AK2">
+      <c r="AK2" t="n">
         <v>5173</v>
       </c>
-      <c r="AL2">
+      <c r="AL2" t="n">
         <v>4882</v>
       </c>
-      <c r="AM2">
+      <c r="AM2" t="n">
         <v>6182</v>
       </c>
-      <c r="AN2">
+      <c r="AN2" t="n">
         <v>8142</v>
       </c>
-      <c r="AO2">
+      <c r="AO2" t="n">
         <v>11893</v>
       </c>
-      <c r="AP2">
+      <c r="AP2" t="n">
         <v>14144</v>
       </c>
-      <c r="AQ2">
+      <c r="AQ2" t="n">
         <v>14354</v>
       </c>
-      <c r="AR2">
+      <c r="AR2" t="n">
         <v>15275</v>
       </c>
-      <c r="AS2">
+      <c r="AS2" t="n">
         <v>15446</v>
       </c>
-      <c r="AT2">
+      <c r="AT2" t="n">
         <v>16659</v>
       </c>
-      <c r="AU2">
+      <c r="AU2" t="n">
         <v>17504</v>
       </c>
-      <c r="AV2">
+      <c r="AV2" t="n">
         <v>16263</v>
       </c>
-      <c r="AW2">
+      <c r="AW2" t="n">
         <v>16621</v>
       </c>
-      <c r="AX2">
+      <c r="AX2" t="n">
         <v>16509</v>
       </c>
-      <c r="AY2">
+      <c r="AY2" t="n">
         <v>16801</v>
       </c>
-      <c r="AZ2">
+      <c r="AZ2" t="n">
         <v>17175</v>
       </c>
-      <c r="BA2">
+      <c r="BA2" t="n">
         <v>17311</v>
       </c>
-      <c r="BB2">
+      <c r="BB2" t="n">
         <v>25037.900002</v>
       </c>
-      <c r="BC2">
+      <c r="BC2" t="n">
         <v>21121.999999</v>
       </c>
-      <c r="BD2">
+      <c r="BD2" t="n">
         <v>22911.231876</v>
       </c>
-      <c r="BE2">
+      <c r="BE2" t="n">
         <v>22780.019605</v>
       </c>
-      <c r="BF2">
+      <c r="BF2" t="n">
         <v>41337.14902</v>
       </c>
-      <c r="BG2">
+      <c r="BG2" t="n">
         <v>52385.898133</v>
       </c>
-      <c r="BH2">
+      <c r="BH2" t="n">
         <v>55474.59763</v>
       </c>
-      <c r="BI2">
+      <c r="BI2" t="n">
         <v>71457.669511</v>
       </c>
-      <c r="BJ2">
+      <c r="BJ2" t="n">
         <v>79480.281076</v>
       </c>
-      <c r="BK2">
+      <c r="BK2" t="n">
         <v>98210.17276099999</v>
       </c>
-      <c r="BL2">
+      <c r="BL2" t="n">
         <v>98567.926359</v>
       </c>
-      <c r="BM2">
+      <c r="BM2" t="n">
         <v>110675.717028</v>
       </c>
-      <c r="BN2">
+      <c r="BN2" t="n">
         <v>135401.746672</v>
       </c>
-      <c r="BO2">
+      <c r="BO2" t="n">
         <v>151487.405068</v>
       </c>
-      <c r="BP2">
+      <c r="BP2" t="n">
         <v>131766.526766</v>
       </c>
-      <c r="BQ2">
+      <c r="BQ2" t="n">
         <v>126453.489293</v>
       </c>
-      <c r="BR2">
+      <c r="BR2" t="n">
         <v>143880.453629</v>
       </c>
-      <c r="BS2">
+      <c r="BS2" t="n">
         <v>119626.469493</v>
       </c>
-      <c r="BT2">
+      <c r="BT2" t="n">
         <v>125897.525951</v>
       </c>
-      <c r="BU2">
+      <c r="BU2" t="n">
         <v>148093.882525</v>
       </c>
-      <c r="BV2">
+      <c r="BV2" t="n">
         <v>163322.488586</v>
       </c>
-      <c r="BW2">
+      <c r="BW2" t="n">
         <v>161656.373074</v>
       </c>
-      <c r="BX2">
+      <c r="BX2" t="n">
         <v>137060.315324</v>
       </c>
-      <c r="BY2">
+      <c r="BY2" t="n">
         <v>185284.019599</v>
       </c>
     </row>
-    <row r="3" spans="1:77">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>550</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>654</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>757</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>919</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>1083</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>1287</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>1517</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>1676</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>1795</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>1903</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>2153</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="n">
         <v>2431</v>
       </c>
-      <c r="N3">
+      <c r="N3" t="n">
         <v>2781</v>
       </c>
-      <c r="O3">
+      <c r="O3" t="n">
         <v>3067</v>
       </c>
-      <c r="P3">
+      <c r="P3" t="n">
         <v>3302</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" t="n">
         <v>3652</v>
       </c>
-      <c r="R3">
+      <c r="R3" t="n">
         <v>4117</v>
       </c>
-      <c r="S3">
+      <c r="S3" t="n">
         <v>4832</v>
       </c>
-      <c r="T3">
+      <c r="T3" t="n">
         <v>5058</v>
       </c>
-      <c r="U3">
+      <c r="U3" t="n">
         <v>5344</v>
       </c>
-      <c r="V3">
+      <c r="V3" t="n">
         <v>5900</v>
       </c>
-      <c r="W3">
+      <c r="W3" t="n">
         <v>6467</v>
       </c>
-      <c r="X3">
+      <c r="X3" t="n">
         <v>7065</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" t="n">
         <v>7561</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" t="n">
         <v>9833</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" t="n">
         <v>12322</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" t="n">
         <v>14165</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" t="n">
         <v>18115</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" t="n">
         <v>24034</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" t="n">
         <v>27713</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" t="n">
         <v>32330</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" t="n">
         <v>36993</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" t="n">
         <v>43538</v>
       </c>
-      <c r="AI3">
+      <c r="AI3" t="n">
         <v>51019</v>
       </c>
-      <c r="AJ3">
+      <c r="AJ3" t="n">
         <v>62654</v>
       </c>
-      <c r="AK3">
+      <c r="AK3" t="n">
         <v>71829</v>
       </c>
-      <c r="AL3">
+      <c r="AL3" t="n">
         <v>79608</v>
       </c>
-      <c r="AM3">
+      <c r="AM3" t="n">
         <v>89472</v>
       </c>
-      <c r="AN3">
+      <c r="AN3" t="n">
         <v>129171</v>
       </c>
-      <c r="AO3">
+      <c r="AO3" t="n">
         <v>143851</v>
       </c>
-      <c r="AP3">
+      <c r="AP3" t="n">
         <v>149958</v>
       </c>
-      <c r="AQ3">
+      <c r="AQ3" t="n">
         <v>169627</v>
       </c>
-      <c r="AR3">
+      <c r="AR3" t="n">
         <v>204784</v>
       </c>
-      <c r="AS3">
+      <c r="AS3" t="n">
         <v>230163</v>
       </c>
-      <c r="AT3">
+      <c r="AT3" t="n">
         <v>267485</v>
       </c>
-      <c r="AU3">
+      <c r="AU3" t="n">
         <v>315938</v>
       </c>
-      <c r="AV3">
+      <c r="AV3" t="n">
         <v>326839</v>
       </c>
-      <c r="AW3">
+      <c r="AW3" t="n">
         <v>349595</v>
       </c>
-      <c r="AX3">
+      <c r="AX3" t="n">
         <v>393810</v>
       </c>
-      <c r="AY3">
+      <c r="AY3" t="n">
         <v>438247</v>
       </c>
-      <c r="AZ3">
+      <c r="AZ3" t="n">
         <v>495389</v>
       </c>
-      <c r="BA3">
+      <c r="BA3" t="n">
         <v>540305</v>
       </c>
-      <c r="BB3">
+      <c r="BB3" t="n">
         <v>692597.0692849</v>
       </c>
-      <c r="BC3">
+      <c r="BC3" t="n">
         <v>761325.534915009</v>
       </c>
-      <c r="BD3">
+      <c r="BD3" t="n">
         <v>934726.133614</v>
       </c>
-      <c r="BE3">
+      <c r="BE3" t="n">
         <v>1018637.584729</v>
       </c>
-      <c r="BF3">
+      <c r="BF3" t="n">
         <v>1093530.978492</v>
       </c>
-      <c r="BG3">
+      <c r="BG3" t="n">
         <v>1171756.198192</v>
       </c>
-      <c r="BH3">
+      <c r="BH3" t="n">
         <v>1278375.758348</v>
       </c>
-      <c r="BI3">
+      <c r="BI3" t="n">
         <v>1436118.566189</v>
       </c>
-      <c r="BJ3">
+      <c r="BJ3" t="n">
         <v>1560911.038038</v>
       </c>
-      <c r="BK3">
+      <c r="BK3" t="n">
         <v>1666459.310668</v>
       </c>
-      <c r="BL3">
+      <c r="BL3" t="n">
         <v>1873174.429787</v>
       </c>
-      <c r="BM3">
+      <c r="BM3" t="n">
         <v>1823961.366237</v>
       </c>
-      <c r="BN3">
+      <c r="BN3" t="n">
         <v>2060284.571935</v>
       </c>
-      <c r="BO3">
+      <c r="BO3" t="n">
         <v>2201830.4626</v>
       </c>
-      <c r="BP3">
+      <c r="BP3" t="n">
         <v>2359065.564875</v>
       </c>
-      <c r="BQ3">
+      <c r="BQ3" t="n">
         <v>2462478.070267</v>
       </c>
-      <c r="BR3">
+      <c r="BR3" t="n">
         <v>2717316.005286</v>
       </c>
-      <c r="BS3">
+      <c r="BS3" t="n">
         <v>2778794.816104</v>
       </c>
-      <c r="BT3">
+      <c r="BT3" t="n">
         <v>2964479.411301</v>
       </c>
-      <c r="BU3">
+      <c r="BU3" t="n">
         <v>3228580.414857</v>
       </c>
-      <c r="BV3">
+      <c r="BV3" t="n">
         <v>3488331.181025</v>
       </c>
-      <c r="BW3">
+      <c r="BW3" t="n">
         <v>3614016.234103</v>
       </c>
-      <c r="BX3">
+      <c r="BX3" t="n">
         <v>3169921.002857</v>
       </c>
-      <c r="BY3">
+      <c r="BY3" t="n">
         <v>3423403.860882</v>
       </c>
     </row>
-    <row r="4" spans="1:77">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Electricity, steam, water and waste management</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>67</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>70</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>73</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>77</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>80</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>86</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>90</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>95</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>100</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>105</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="n">
         <v>120</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="n">
         <v>130</v>
       </c>
-      <c r="N4">
+      <c r="N4" t="n">
         <v>139</v>
       </c>
-      <c r="O4">
+      <c r="O4" t="n">
         <v>145</v>
       </c>
-      <c r="P4">
+      <c r="P4" t="n">
         <v>151</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" t="n">
         <v>152</v>
       </c>
-      <c r="R4">
+      <c r="R4" t="n">
         <v>156</v>
       </c>
-      <c r="S4">
+      <c r="S4" t="n">
         <v>162</v>
       </c>
-      <c r="T4">
+      <c r="T4" t="n">
         <v>173</v>
       </c>
-      <c r="U4">
+      <c r="U4" t="n">
         <v>197</v>
       </c>
-      <c r="V4">
+      <c r="V4" t="n">
         <v>218</v>
       </c>
-      <c r="W4">
+      <c r="W4" t="n">
         <v>223</v>
       </c>
-      <c r="X4">
+      <c r="X4" t="n">
         <v>258</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" t="n">
         <v>292</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" t="n">
         <v>328</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" t="n">
         <v>375</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" t="n">
         <v>468</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" t="n">
         <v>565</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" t="n">
         <v>1291</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" t="n">
         <v>1468</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" t="n">
         <v>1701</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" t="n">
         <v>1970</v>
       </c>
-      <c r="AH4">
+      <c r="AH4" t="n">
         <v>2290</v>
       </c>
-      <c r="AI4">
+      <c r="AI4" t="n">
         <v>2934</v>
       </c>
-      <c r="AJ4">
+      <c r="AJ4" t="n">
         <v>3806</v>
       </c>
-      <c r="AK4">
+      <c r="AK4" t="n">
         <v>4945</v>
       </c>
-      <c r="AL4">
+      <c r="AL4" t="n">
         <v>6577</v>
       </c>
-      <c r="AM4">
+      <c r="AM4" t="n">
         <v>8955</v>
       </c>
-      <c r="AN4">
+      <c r="AN4" t="n">
         <v>12779</v>
       </c>
-      <c r="AO4">
+      <c r="AO4" t="n">
         <v>15767</v>
       </c>
-      <c r="AP4">
+      <c r="AP4" t="n">
         <v>16642</v>
       </c>
-      <c r="AQ4">
+      <c r="AQ4" t="n">
         <v>14009</v>
       </c>
-      <c r="AR4">
+      <c r="AR4" t="n">
         <v>18084</v>
       </c>
-      <c r="AS4">
+      <c r="AS4" t="n">
         <v>20074</v>
       </c>
-      <c r="AT4">
+      <c r="AT4" t="n">
         <v>22300</v>
       </c>
-      <c r="AU4">
+      <c r="AU4" t="n">
         <v>29100</v>
       </c>
-      <c r="AV4">
+      <c r="AV4" t="n">
         <v>32743</v>
       </c>
-      <c r="AW4">
+      <c r="AW4" t="n">
         <v>36417</v>
       </c>
-      <c r="AX4">
+      <c r="AX4" t="n">
         <v>44895</v>
       </c>
-      <c r="AY4">
+      <c r="AY4" t="n">
         <v>49410</v>
       </c>
-      <c r="AZ4">
+      <c r="AZ4" t="n">
         <v>56725</v>
       </c>
-      <c r="BA4">
+      <c r="BA4" t="n">
         <v>66054</v>
       </c>
-      <c r="BB4">
+      <c r="BB4" t="n">
         <v>110062.602191407</v>
       </c>
-      <c r="BC4">
+      <c r="BC4" t="n">
         <v>117179.377321611</v>
       </c>
-      <c r="BD4">
+      <c r="BD4" t="n">
         <v>134499.775668</v>
       </c>
-      <c r="BE4">
+      <c r="BE4" t="n">
         <v>159999.65874</v>
       </c>
-      <c r="BF4">
+      <c r="BF4" t="n">
         <v>165369.324877</v>
       </c>
-      <c r="BG4">
+      <c r="BG4" t="n">
         <v>175192.618953</v>
       </c>
-      <c r="BH4">
+      <c r="BH4" t="n">
         <v>195623.083156</v>
       </c>
-      <c r="BI4">
+      <c r="BI4" t="n">
         <v>220570.507389</v>
       </c>
-      <c r="BJ4">
+      <c r="BJ4" t="n">
         <v>238502.59849</v>
       </c>
-      <c r="BK4">
+      <c r="BK4" t="n">
         <v>255295.277219</v>
       </c>
-      <c r="BL4">
+      <c r="BL4" t="n">
         <v>266702.38551</v>
       </c>
-      <c r="BM4">
+      <c r="BM4" t="n">
         <v>275784.220661</v>
       </c>
-      <c r="BN4">
+      <c r="BN4" t="n">
         <v>326132.61062</v>
       </c>
-      <c r="BO4">
+      <c r="BO4" t="n">
         <v>335334.442373</v>
       </c>
-      <c r="BP4">
+      <c r="BP4" t="n">
         <v>379746.927868</v>
       </c>
-      <c r="BQ4">
+      <c r="BQ4" t="n">
         <v>401382.416262</v>
       </c>
-      <c r="BR4">
+      <c r="BR4" t="n">
         <v>426063.26107</v>
       </c>
-      <c r="BS4">
+      <c r="BS4" t="n">
         <v>443279.152464</v>
       </c>
-      <c r="BT4">
+      <c r="BT4" t="n">
         <v>466221.738563</v>
       </c>
-      <c r="BU4">
+      <c r="BU4" t="n">
         <v>505119.167941</v>
       </c>
-      <c r="BV4">
+      <c r="BV4" t="n">
         <v>557030.201917</v>
       </c>
-      <c r="BW4">
+      <c r="BW4" t="n">
         <v>607881.483</v>
       </c>
-      <c r="BX4">
+      <c r="BX4" t="n">
         <v>611051.346824</v>
       </c>
-      <c r="BY4">
+      <c r="BY4" t="n">
         <v>650876.387725</v>
       </c>
     </row>
-    <row r="5" spans="1:77">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>444</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>757</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>963</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>704</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>620</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>706</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>627</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>704</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>560</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>549</v>
       </c>
-      <c r="L5">
+      <c r="L5" t="n">
         <v>653</v>
       </c>
-      <c r="M5">
+      <c r="M5" t="n">
         <v>741</v>
       </c>
-      <c r="N5">
+      <c r="N5" t="n">
         <v>657</v>
       </c>
-      <c r="O5">
+      <c r="O5" t="n">
         <v>708</v>
       </c>
-      <c r="P5">
+      <c r="P5" t="n">
         <v>659</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" t="n">
         <v>755</v>
       </c>
-      <c r="R5">
+      <c r="R5" t="n">
         <v>754</v>
       </c>
-      <c r="S5">
+      <c r="S5" t="n">
         <v>986</v>
       </c>
-      <c r="T5">
+      <c r="T5" t="n">
         <v>1123</v>
       </c>
-      <c r="U5">
+      <c r="U5" t="n">
         <v>1288</v>
       </c>
-      <c r="V5">
+      <c r="V5" t="n">
         <v>1297</v>
       </c>
-      <c r="W5">
+      <c r="W5" t="n">
         <v>1429</v>
       </c>
-      <c r="X5">
+      <c r="X5" t="n">
         <v>1434</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" t="n">
         <v>1625</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" t="n">
         <v>1608</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" t="n">
         <v>1891</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" t="n">
         <v>2378</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" t="n">
         <v>2925</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" t="n">
         <v>4858</v>
       </c>
-      <c r="AE5">
+      <c r="AE5" t="n">
         <v>7233</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" t="n">
         <v>10410</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" t="n">
         <v>12521</v>
       </c>
-      <c r="AH5">
+      <c r="AH5" t="n">
         <v>13367</v>
       </c>
-      <c r="AI5">
+      <c r="AI5" t="n">
         <v>17894</v>
       </c>
-      <c r="AJ5">
+      <c r="AJ5" t="n">
         <v>22625</v>
       </c>
-      <c r="AK5">
+      <c r="AK5" t="n">
         <v>28362</v>
       </c>
-      <c r="AL5">
+      <c r="AL5" t="n">
         <v>32087</v>
       </c>
-      <c r="AM5">
+      <c r="AM5" t="n">
         <v>40192</v>
       </c>
-      <c r="AN5">
+      <c r="AN5" t="n">
         <v>48727</v>
       </c>
-      <c r="AO5">
+      <c r="AO5" t="n">
         <v>29037</v>
       </c>
-      <c r="AP5">
+      <c r="AP5" t="n">
         <v>29784</v>
       </c>
-      <c r="AQ5">
+      <c r="AQ5" t="n">
         <v>37104</v>
       </c>
-      <c r="AR5">
+      <c r="AR5" t="n">
         <v>42814</v>
       </c>
-      <c r="AS5">
+      <c r="AS5" t="n">
         <v>57281</v>
       </c>
-      <c r="AT5">
+      <c r="AT5" t="n">
         <v>64903</v>
       </c>
-      <c r="AU5">
+      <c r="AU5" t="n">
         <v>61962</v>
       </c>
-      <c r="AV5">
+      <c r="AV5" t="n">
         <v>67968</v>
       </c>
-      <c r="AW5">
+      <c r="AW5" t="n">
         <v>79267</v>
       </c>
-      <c r="AX5">
+      <c r="AX5" t="n">
         <v>95495</v>
       </c>
-      <c r="AY5">
+      <c r="AY5" t="n">
         <v>106639</v>
       </c>
-      <c r="AZ5">
+      <c r="AZ5" t="n">
         <v>127592</v>
       </c>
-      <c r="BA5">
+      <c r="BA5" t="n">
         <v>156116</v>
       </c>
-      <c r="BB5">
+      <c r="BB5" t="n">
         <v>187763.244134032</v>
       </c>
-      <c r="BC5">
+      <c r="BC5" t="n">
         <v>172770.997651189</v>
       </c>
-      <c r="BD5">
+      <c r="BD5" t="n">
         <v>201093.671164</v>
       </c>
-      <c r="BE5">
+      <c r="BE5" t="n">
         <v>203001.995523</v>
       </c>
-      <c r="BF5">
+      <c r="BF5" t="n">
         <v>213036.689517</v>
       </c>
-      <c r="BG5">
+      <c r="BG5" t="n">
         <v>230223.10266</v>
       </c>
-      <c r="BH5">
+      <c r="BH5" t="n">
         <v>260353.732517</v>
       </c>
-      <c r="BI5">
+      <c r="BI5" t="n">
         <v>272703.940326</v>
       </c>
-      <c r="BJ5">
+      <c r="BJ5" t="n">
         <v>313044.998283</v>
       </c>
-      <c r="BK5">
+      <c r="BK5" t="n">
         <v>355518.02438</v>
       </c>
-      <c r="BL5">
+      <c r="BL5" t="n">
         <v>399226.709329</v>
       </c>
-      <c r="BM5">
+      <c r="BM5" t="n">
         <v>434452.880787</v>
       </c>
-      <c r="BN5">
+      <c r="BN5" t="n">
         <v>517921.716662</v>
       </c>
-      <c r="BO5">
+      <c r="BO5" t="n">
         <v>490550.922538</v>
       </c>
-      <c r="BP5">
+      <c r="BP5" t="n">
         <v>602389.8362960001</v>
       </c>
-      <c r="BQ5">
+      <c r="BQ5" t="n">
         <v>718309.529091</v>
       </c>
-      <c r="BR5">
+      <c r="BR5" t="n">
         <v>813122.948371</v>
       </c>
-      <c r="BS5">
+      <c r="BS5" t="n">
         <v>908750.80026</v>
       </c>
-      <c r="BT5">
+      <c r="BT5" t="n">
         <v>1026381.841669</v>
       </c>
-      <c r="BU5">
+      <c r="BU5" t="n">
         <v>1106154.397106</v>
       </c>
-      <c r="BV5">
+      <c r="BV5" t="n">
         <v>1373841.417788</v>
       </c>
-      <c r="BW5">
+      <c r="BW5" t="n">
         <v>1535727.401128</v>
       </c>
-      <c r="BX5">
+      <c r="BX5" t="n">
         <v>1180199.434098</v>
       </c>
-      <c r="BY5">
+      <c r="BY5" t="n">
         <v>1347446.263728</v>
       </c>
     </row>
-    <row r="6" spans="1:77">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>2002.463594</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>2224.09277187731</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>2462.17341935732</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>2677.82967549137</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>2887.86733758664</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>3205.00341303212</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>3451.56789211737</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>3619.01120183726</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>3856.4243416102</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>4156.03445694797</v>
       </c>
-      <c r="L6">
+      <c r="L6" t="n">
         <v>4567.31886060059</v>
       </c>
-      <c r="M6">
+      <c r="M6" t="n">
         <v>4971.41952573292</v>
       </c>
-      <c r="N6">
+      <c r="N6" t="n">
         <v>5250.9990504567</v>
       </c>
-      <c r="O6">
+      <c r="O6" t="n">
         <v>5698.728195041</v>
       </c>
-      <c r="P6">
+      <c r="P6" t="n">
         <v>6312.47471214815</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" t="n">
         <v>6795.40906595172</v>
       </c>
-      <c r="R6">
+      <c r="R6" t="n">
         <v>7633.51925271693</v>
       </c>
-      <c r="S6">
+      <c r="S6" t="n">
         <v>8631.393296840961</v>
       </c>
-      <c r="T6">
+      <c r="T6" t="n">
         <v>9627.908790706681</v>
       </c>
-      <c r="U6">
+      <c r="U6" t="n">
         <v>10518.5181606693</v>
       </c>
-      <c r="V6">
+      <c r="V6" t="n">
         <v>11626.2157369246</v>
       </c>
-      <c r="W6">
+      <c r="W6" t="n">
         <v>12251.4327003389</v>
       </c>
-      <c r="X6">
+      <c r="X6" t="n">
         <v>13420.4646998743</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" t="n">
         <v>14778.0527592108</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" t="n">
         <v>17055.8361453961</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" t="n">
         <v>19915.7603932693</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" t="n">
         <v>22145.4855832165</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" t="n">
         <v>26918.7199087288</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" t="n">
         <v>36074.2313684108</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" t="n">
         <v>41842.1969816089</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" t="n">
         <v>49091.7131170814</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" t="n">
         <v>55858.5638261646</v>
       </c>
-      <c r="AH6">
+      <c r="AH6" t="n">
         <v>65072.6183457897</v>
       </c>
-      <c r="AI6">
+      <c r="AI6" t="n">
         <v>79260.52327989371</v>
       </c>
-      <c r="AJ6">
+      <c r="AJ6" t="n">
         <v>97602.9564284787</v>
       </c>
-      <c r="AK6">
+      <c r="AK6" t="n">
         <v>112227.72160852</v>
       </c>
-      <c r="AL6">
+      <c r="AL6" t="n">
         <v>132916.375497022</v>
       </c>
-      <c r="AM6">
+      <c r="AM6" t="n">
         <v>156848.057877018</v>
       </c>
-      <c r="AN6">
+      <c r="AN6" t="n">
         <v>217719.66006772</v>
       </c>
-      <c r="AO6">
+      <c r="AO6" t="n">
         <v>257409.140178224</v>
       </c>
-      <c r="AP6">
+      <c r="AP6" t="n">
         <v>281753.059705732</v>
       </c>
-      <c r="AQ6">
+      <c r="AQ6" t="n">
         <v>316752.357418726</v>
       </c>
-      <c r="AR6">
+      <c r="AR6" t="n">
         <v>373060.401330865</v>
       </c>
-      <c r="AS6">
+      <c r="AS6" t="n">
         <v>437604.482196748</v>
       </c>
-      <c r="AT6">
+      <c r="AT6" t="n">
         <v>523955.99518913</v>
       </c>
-      <c r="AU6">
+      <c r="AU6" t="n">
         <v>626106.068968397</v>
       </c>
-      <c r="AV6">
+      <c r="AV6" t="n">
         <v>684974.564758683</v>
       </c>
-      <c r="AW6">
+      <c r="AW6" t="n">
         <v>753610.7551409299</v>
       </c>
-      <c r="AX6">
+      <c r="AX6" t="n">
         <v>861508.464449655</v>
       </c>
-      <c r="AY6">
+      <c r="AY6" t="n">
         <v>988392.23506807</v>
       </c>
-      <c r="AZ6">
+      <c r="AZ6" t="n">
         <v>1149397.54684348</v>
       </c>
-      <c r="BA6">
+      <c r="BA6" t="n">
         <v>1328175.70521267</v>
       </c>
-      <c r="BB6">
+      <c r="BB6" t="n">
         <v>1534386.99753943</v>
       </c>
-      <c r="BC6">
+      <c r="BC6" t="n">
         <v>1715803.68299493</v>
       </c>
-      <c r="BD6">
+      <c r="BD6" t="n">
         <v>1888845.562007</v>
       </c>
-      <c r="BE6">
+      <c r="BE6" t="n">
         <v>2084621.564958</v>
       </c>
-      <c r="BF6">
+      <c r="BF6" t="n">
         <v>2252204.366197</v>
       </c>
-      <c r="BG6">
+      <c r="BG6" t="n">
         <v>2467814.53797</v>
       </c>
-      <c r="BH6">
+      <c r="BH6" t="n">
         <v>2789560.753298</v>
       </c>
-      <c r="BI6">
+      <c r="BI6" t="n">
         <v>3116560.201351</v>
       </c>
-      <c r="BJ6">
+      <c r="BJ6" t="n">
         <v>3483260.64902</v>
       </c>
-      <c r="BK6">
+      <c r="BK6" t="n">
         <v>3843332.363747</v>
       </c>
-      <c r="BL6">
+      <c r="BL6" t="n">
         <v>4243956.029336</v>
       </c>
-      <c r="BM6">
+      <c r="BM6" t="n">
         <v>4525562.093778</v>
       </c>
-      <c r="BN6">
+      <c r="BN6" t="n">
         <v>5067392.311779</v>
       </c>
-      <c r="BO6">
+      <c r="BO6" t="n">
         <v>5535493.501562</v>
       </c>
-      <c r="BP6">
+      <c r="BP6" t="n">
         <v>6139146.607226</v>
       </c>
-      <c r="BQ6">
+      <c r="BQ6" t="n">
         <v>6838846.913572</v>
       </c>
-      <c r="BR6">
+      <c r="BR6" t="n">
         <v>7485745.668073</v>
       </c>
-      <c r="BS6">
+      <c r="BS6" t="n">
         <v>8160337.053527</v>
       </c>
-      <c r="BT6">
+      <c r="BT6" t="n">
         <v>9005122.427606</v>
       </c>
-      <c r="BU6">
+      <c r="BU6" t="n">
         <v>9882747.035254</v>
       </c>
-      <c r="BV6">
+      <c r="BV6" t="n">
         <v>10920048.472266</v>
       </c>
-      <c r="BW6">
+      <c r="BW6" t="n">
         <v>11877042.960118</v>
       </c>
-      <c r="BX6">
+      <c r="BX6" t="n">
         <v>11024917.867682</v>
       </c>
-      <c r="BY6">
+      <c r="BY6" t="n">
         <v>11849212.879295</v>
       </c>
     </row>
-    <row r="7" spans="1:77">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="W7">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Wholesale and retail trade; repair of motor vehicles and motorcycles</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="n">
         <v>2632</v>
       </c>
-      <c r="X7">
+      <c r="X7" t="n">
         <v>2778</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" t="n">
         <v>3000</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" t="n">
         <v>3833</v>
       </c>
-      <c r="AA7">
+      <c r="AA7" t="n">
         <v>4660</v>
       </c>
-      <c r="AB7">
+      <c r="AB7" t="n">
         <v>5313</v>
       </c>
-      <c r="AC7">
+      <c r="AC7" t="n">
         <v>6723</v>
       </c>
-      <c r="AD7">
+      <c r="AD7" t="n">
         <v>9835</v>
       </c>
-      <c r="AE7">
+      <c r="AE7" t="n">
         <v>11125</v>
       </c>
-      <c r="AF7">
+      <c r="AF7" t="n">
         <v>13277</v>
       </c>
-      <c r="AG7">
+      <c r="AG7" t="n">
         <v>15724</v>
       </c>
-      <c r="AH7">
+      <c r="AH7" t="n">
         <v>18658</v>
       </c>
-      <c r="AI7">
+      <c r="AI7" t="n">
         <v>23658</v>
       </c>
-      <c r="AJ7">
+      <c r="AJ7" t="n">
         <v>29681</v>
       </c>
-      <c r="AK7">
+      <c r="AK7" t="n">
         <v>33299</v>
       </c>
-      <c r="AL7">
+      <c r="AL7" t="n">
         <v>39683</v>
       </c>
-      <c r="AM7">
+      <c r="AM7" t="n">
         <v>46743</v>
       </c>
-      <c r="AN7">
+      <c r="AN7" t="n">
         <v>70822</v>
       </c>
-      <c r="AO7">
+      <c r="AO7" t="n">
         <v>82835</v>
       </c>
-      <c r="AP7">
+      <c r="AP7" t="n">
         <v>87825</v>
       </c>
-      <c r="AQ7">
+      <c r="AQ7" t="n">
         <v>96518</v>
       </c>
-      <c r="AR7">
+      <c r="AR7" t="n">
         <v>114085</v>
       </c>
-      <c r="AS7">
+      <c r="AS7" t="n">
         <v>133224</v>
       </c>
-      <c r="AT7">
+      <c r="AT7" t="n">
         <v>154592</v>
       </c>
-      <c r="AU7">
+      <c r="AU7" t="n">
         <v>180486</v>
       </c>
-      <c r="AV7">
+      <c r="AV7" t="n">
         <v>193573</v>
       </c>
-      <c r="AW7">
+      <c r="AW7" t="n">
         <v>207563</v>
       </c>
-      <c r="AX7">
+      <c r="AX7" t="n">
         <v>230799</v>
       </c>
-      <c r="AY7">
+      <c r="AY7" t="n">
         <v>261862</v>
       </c>
-      <c r="AZ7">
+      <c r="AZ7" t="n">
         <v>295092</v>
       </c>
-      <c r="BA7">
+      <c r="BA7" t="n">
         <v>317170</v>
       </c>
-      <c r="BB7">
+      <c r="BB7" t="n">
         <v>432604.300007872</v>
       </c>
-      <c r="BC7">
+      <c r="BC7" t="n">
         <v>505836.913706441</v>
       </c>
-      <c r="BD7">
+      <c r="BD7" t="n">
         <v>576736.167147</v>
       </c>
-      <c r="BE7">
+      <c r="BE7" t="n">
         <v>632063.932441</v>
       </c>
-      <c r="BF7">
+      <c r="BF7" t="n">
         <v>676253.595141</v>
       </c>
-      <c r="BG7">
+      <c r="BG7" t="n">
         <v>734068.933398</v>
       </c>
-      <c r="BH7">
+      <c r="BH7" t="n">
         <v>828676.023462</v>
       </c>
-      <c r="BI7">
+      <c r="BI7" t="n">
         <v>939417.755372</v>
       </c>
-      <c r="BJ7">
+      <c r="BJ7" t="n">
         <v>1062061.311918</v>
       </c>
-      <c r="BK7">
+      <c r="BK7" t="n">
         <v>1186383.928467</v>
       </c>
-      <c r="BL7">
+      <c r="BL7" t="n">
         <v>1319541.681482</v>
       </c>
-      <c r="BM7">
+      <c r="BM7" t="n">
         <v>1366111.972022</v>
       </c>
-      <c r="BN7">
+      <c r="BN7" t="n">
         <v>1571247.768297</v>
       </c>
-      <c r="BO7">
+      <c r="BO7" t="n">
         <v>1704663.450075</v>
       </c>
-      <c r="BP7">
+      <c r="BP7" t="n">
         <v>1878583.229632</v>
       </c>
-      <c r="BQ7">
+      <c r="BQ7" t="n">
         <v>2078127.39872</v>
       </c>
-      <c r="BR7">
+      <c r="BR7" t="n">
         <v>2252323.696536</v>
       </c>
-      <c r="BS7">
+      <c r="BS7" t="n">
         <v>2427159.611945</v>
       </c>
-      <c r="BT7">
+      <c r="BT7" t="n">
         <v>2668595.57114</v>
       </c>
-      <c r="BU7">
+      <c r="BU7" t="n">
         <v>2926501.504771</v>
       </c>
-      <c r="BV7">
+      <c r="BV7" t="n">
         <v>3237304.499115</v>
       </c>
-      <c r="BW7">
+      <c r="BW7" t="n">
         <v>3517653.082856</v>
       </c>
-      <c r="BX7">
+      <c r="BX7" t="n">
         <v>3317370.680859</v>
       </c>
-      <c r="BY7">
+      <c r="BY7" t="n">
         <v>3503236.479549</v>
       </c>
     </row>
-    <row r="8" spans="1:77">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Financial and insurance activities</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>1223</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>1304</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>1408</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>1497</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>1574</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>1728</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>1794</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>1839</v>
       </c>
-      <c r="J8">
+      <c r="J8" t="n">
         <v>1938</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="n">
         <v>2058</v>
       </c>
-      <c r="L8">
+      <c r="L8" t="n">
         <v>2240</v>
       </c>
-      <c r="M8">
+      <c r="M8" t="n">
         <v>2407</v>
       </c>
-      <c r="N8">
+      <c r="N8" t="n">
         <v>2506</v>
       </c>
-      <c r="O8">
+      <c r="O8" t="n">
         <v>2726</v>
       </c>
-      <c r="P8">
+      <c r="P8" t="n">
         <v>2978</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" t="n">
         <v>3183</v>
       </c>
-      <c r="R8">
+      <c r="R8" t="n">
         <v>3602</v>
       </c>
-      <c r="S8">
+      <c r="S8" t="n">
         <v>4087</v>
       </c>
-      <c r="T8">
+      <c r="T8" t="n">
         <v>4558</v>
       </c>
-      <c r="U8">
+      <c r="U8" t="n">
         <v>4999</v>
       </c>
-      <c r="V8">
+      <c r="V8" t="n">
         <v>5462</v>
       </c>
-      <c r="W8">
+      <c r="W8" t="n">
         <v>677</v>
       </c>
-      <c r="X8">
+      <c r="X8" t="n">
         <v>832</v>
       </c>
-      <c r="Y8">
+      <c r="Y8" t="n">
         <v>1033</v>
       </c>
-      <c r="Z8">
+      <c r="Z8" t="n">
         <v>1191</v>
       </c>
-      <c r="AA8">
+      <c r="AA8" t="n">
         <v>1376</v>
       </c>
-      <c r="AB8">
+      <c r="AB8" t="n">
         <v>1556</v>
       </c>
-      <c r="AC8">
+      <c r="AC8" t="n">
         <v>1950</v>
       </c>
-      <c r="AD8">
+      <c r="AD8" t="n">
         <v>2758</v>
       </c>
-      <c r="AE8">
+      <c r="AE8" t="n">
         <v>3549</v>
       </c>
-      <c r="AF8">
+      <c r="AF8" t="n">
         <v>4267</v>
       </c>
-      <c r="AG8">
+      <c r="AG8" t="n">
         <v>4884</v>
       </c>
-      <c r="AH8">
+      <c r="AH8" t="n">
         <v>5733</v>
       </c>
-      <c r="AI8">
+      <c r="AI8" t="n">
         <v>7261</v>
       </c>
-      <c r="AJ8">
+      <c r="AJ8" t="n">
         <v>9457</v>
       </c>
-      <c r="AK8">
+      <c r="AK8" t="n">
         <v>9253</v>
       </c>
-      <c r="AL8">
+      <c r="AL8" t="n">
         <v>10762</v>
       </c>
-      <c r="AM8">
+      <c r="AM8" t="n">
         <v>13484</v>
       </c>
-      <c r="AN8">
+      <c r="AN8" t="n">
         <v>16335</v>
       </c>
-      <c r="AO8">
+      <c r="AO8" t="n">
         <v>17123</v>
       </c>
-      <c r="AP8">
+      <c r="AP8" t="n">
         <v>18658</v>
       </c>
-      <c r="AQ8">
+      <c r="AQ8" t="n">
         <v>22446</v>
       </c>
-      <c r="AR8">
+      <c r="AR8" t="n">
         <v>27125</v>
       </c>
-      <c r="AS8">
+      <c r="AS8" t="n">
         <v>34334</v>
       </c>
-      <c r="AT8">
+      <c r="AT8" t="n">
         <v>42531</v>
       </c>
-      <c r="AU8">
+      <c r="AU8" t="n">
         <v>48572</v>
       </c>
-      <c r="AV8">
+      <c r="AV8" t="n">
         <v>53166</v>
       </c>
-      <c r="AW8">
+      <c r="AW8" t="n">
         <v>58557</v>
       </c>
-      <c r="AX8">
+      <c r="AX8" t="n">
         <v>67368</v>
       </c>
-      <c r="AY8">
+      <c r="AY8" t="n">
         <v>78232</v>
       </c>
-      <c r="AZ8">
+      <c r="AZ8" t="n">
         <v>96424</v>
       </c>
-      <c r="BA8">
+      <c r="BA8" t="n">
         <v>114459</v>
       </c>
-      <c r="BB8">
+      <c r="BB8" t="n">
         <v>160739.7</v>
       </c>
-      <c r="BC8">
+      <c r="BC8" t="n">
         <v>176770.000001</v>
       </c>
-      <c r="BD8">
+      <c r="BD8" t="n">
         <v>191405.284373</v>
       </c>
-      <c r="BE8">
+      <c r="BE8" t="n">
         <v>215507.959979</v>
       </c>
-      <c r="BF8">
+      <c r="BF8" t="n">
         <v>234807.872541</v>
       </c>
-      <c r="BG8">
+      <c r="BG8" t="n">
         <v>260031.210879</v>
       </c>
-      <c r="BH8">
+      <c r="BH8" t="n">
         <v>298287.059877</v>
       </c>
-      <c r="BI8">
+      <c r="BI8" t="n">
         <v>352560.086177</v>
       </c>
-      <c r="BJ8">
+      <c r="BJ8" t="n">
         <v>418982.312224</v>
       </c>
-      <c r="BK8">
+      <c r="BK8" t="n">
         <v>468983.429956</v>
       </c>
-      <c r="BL8">
+      <c r="BL8" t="n">
         <v>518049.264185</v>
       </c>
-      <c r="BM8">
+      <c r="BM8" t="n">
         <v>560948.3451180001</v>
       </c>
-      <c r="BN8">
+      <c r="BN8" t="n">
         <v>636283.087879</v>
       </c>
-      <c r="BO8">
+      <c r="BO8" t="n">
         <v>692889.382198</v>
       </c>
-      <c r="BP8">
+      <c r="BP8" t="n">
         <v>769803.681312</v>
       </c>
-      <c r="BQ8">
+      <c r="BQ8" t="n">
         <v>892657.838974</v>
       </c>
-      <c r="BR8">
+      <c r="BR8" t="n">
         <v>1005738.644225</v>
       </c>
-      <c r="BS8">
+      <c r="BS8" t="n">
         <v>1087980.507633</v>
       </c>
-      <c r="BT8">
+      <c r="BT8" t="n">
         <v>1193651.481523</v>
       </c>
-      <c r="BU8">
+      <c r="BU8" t="n">
         <v>1326582.520502</v>
       </c>
-      <c r="BV8">
+      <c r="BV8" t="n">
         <v>1498146.707611</v>
       </c>
-      <c r="BW8">
+      <c r="BW8" t="n">
         <v>1681870.098086</v>
       </c>
-      <c r="BX8">
+      <c r="BX8" t="n">
         <v>1823978.721646</v>
       </c>
-      <c r="BY8">
+      <c r="BY8" t="n">
         <v>1961921.522176</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>